--- a/NformTester/NformTester/Keywordscripts/600.30.30.10_AddAndCopyView.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.30.30.10_AddAndCopyView.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="15480" windowHeight="9570" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="15480" windowHeight="9570"/>
   </bookViews>
   <sheets>
     <sheet name="Scripts" sheetId="3" r:id="rId1"/>
@@ -1260,7 +1260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7909" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7915" uniqueCount="899">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4024,6 +4024,14 @@
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeleteLocalFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Delete_File_Path$</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4609,16 +4617,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O94"/>
+  <dimension ref="A1:O96"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="22.75" customWidth="1"/>
-    <col min="2" max="2" width="28.25" customWidth="1"/>
+    <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
     <col min="5" max="5" width="42.625" customWidth="1"/>
     <col min="6" max="6" width="20.125" customWidth="1"/>
     <col min="7" max="7" width="24.25" customWidth="1"/>
@@ -4705,31 +4713,25 @@
         <v>2</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>878</v>
+        <v>826</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>0</v>
+        <v>897</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>825</v>
+        <v>898</v>
       </c>
       <c r="G3" s="13"/>
-      <c r="H3" s="13" t="s">
-        <v>879</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>880</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>881</v>
-      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
       <c r="N3" s="15"/>
       <c r="O3" s="18"/>
     </row>
-    <row r="4" spans="1:15" ht="15">
+    <row r="4" spans="1:15">
       <c r="A4" s="11" t="s">
         <v>892</v>
       </c>
@@ -4739,22 +4741,32 @@
       <c r="C4" s="13">
         <v>3</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>882</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="D4" s="17" t="s">
+        <v>878</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>825</v>
+      </c>
       <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="H4" s="13" t="s">
+        <v>879</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>880</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>881</v>
+      </c>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
       <c r="N4" s="15"/>
       <c r="O4" s="18"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" ht="15">
       <c r="A5" s="11" t="s">
         <v>894</v>
       </c>
@@ -4764,31 +4776,21 @@
       <c r="C5" s="13">
         <v>4</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>883</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>620</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>626</v>
-      </c>
+      <c r="D5" s="14" t="s">
+        <v>882</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="13" t="s">
-        <v>884</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>885</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>886</v>
-      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
       <c r="N5" s="15"/>
     </row>
-    <row r="6" spans="1:15" ht="15">
+    <row r="6" spans="1:15">
       <c r="A6" s="11" t="s">
         <v>895</v>
       </c>
@@ -4798,42 +4800,46 @@
       <c r="C6" s="13">
         <v>5</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>829</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="4"/>
+      <c r="D6" s="17" t="s">
+        <v>883</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>620</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>626</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13" t="s">
+        <v>884</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>885</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>886</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="15"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" ht="15">
       <c r="A7" s="11" t="s">
         <v>810</v>
       </c>
       <c r="B7" s="16">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C7" s="13">
         <v>6</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>830</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>2</v>
-      </c>
+      <c r="D7" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -4857,7 +4863,7 @@
         <v>831</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>2</v>
@@ -4878,19 +4884,19 @@
       <c r="C9" s="13">
         <v>8</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>813</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>834</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>212</v>
+      <c r="D9" s="7" t="s">
+        <v>830</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>833</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -4912,17 +4918,15 @@
         <v>813</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>836</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>873</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H10" s="6"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -4943,12 +4947,14 @@
         <v>835</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="6"/>
+        <v>836</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>873</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -4974,11 +4980,9 @@
         <v>221</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>836</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>837</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H12" s="6"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -5001,17 +5005,15 @@
         <v>835</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>671</v>
+        <v>221</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="6">
-        <v>1</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
+        <v>836</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>837</v>
+      </c>
+      <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -5033,13 +5035,17 @@
         <v>835</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>838</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -5061,7 +5067,7 @@
         <v>835</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>839</v>
+        <v>676</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>838</v>
@@ -5086,17 +5092,15 @@
         <v>813</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>222</v>
+        <v>839</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>836</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>841</v>
-      </c>
+        <v>838</v>
+      </c>
+      <c r="H16" s="6"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -5119,13 +5123,13 @@
         <v>840</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>836</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -5143,16 +5147,20 @@
         <v>17</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>859</v>
+        <v>813</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>828</v>
-      </c>
-      <c r="F18" s="6">
-        <v>2</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+        <v>840</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>842</v>
+      </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -5169,20 +5177,18 @@
         <v>18</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>813</v>
+        <v>859</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>840</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>679</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H19" s="2"/>
+        <v>828</v>
+      </c>
+      <c r="F19" s="6">
+        <v>2</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="6"/>
+      <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -5208,11 +5214,9 @@
         <v>679</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>866</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="6"/>
       <c r="K20" s="2"/>
@@ -5235,14 +5239,16 @@
         <v>840</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>345</v>
+        <v>679</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>838</v>
-      </c>
-      <c r="H21" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>866</v>
+      </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="J21" s="6"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -5260,10 +5266,10 @@
         <v>813</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>839</v>
+        <v>345</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>838</v>
@@ -5284,13 +5290,13 @@
         <v>813</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>598</v>
+        <v>843</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>222</v>
+        <v>839</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>2</v>
+        <v>838</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="2"/>
@@ -5314,11 +5320,9 @@
         <v>222</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>836</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>844</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H24" s="6"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -5337,12 +5341,14 @@
         <v>598</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>568</v>
+        <v>222</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H25" s="6"/>
+        <v>836</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>844</v>
+      </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -5364,11 +5370,9 @@
         <v>568</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>836</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>867</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H26" s="6"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -5381,16 +5385,20 @@
         <v>26</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>861</v>
+        <v>813</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>828</v>
-      </c>
-      <c r="F27" s="6">
-        <v>5</v>
-      </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+        <v>598</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>867</v>
+      </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -5403,17 +5411,15 @@
         <v>27</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>813</v>
+        <v>861</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>598</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>838</v>
-      </c>
+        <v>828</v>
+      </c>
+      <c r="F28" s="6">
+        <v>5</v>
+      </c>
+      <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -5433,7 +5439,7 @@
         <v>598</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>17</v>
+        <v>599</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>838</v>
@@ -5454,10 +5460,10 @@
         <v>813</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>840</v>
+        <v>598</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>845</v>
+        <v>17</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>838</v>
@@ -5478,7 +5484,7 @@
         <v>813</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>845</v>
@@ -5499,15 +5505,17 @@
         <v>31</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>826</v>
+        <v>813</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>799</v>
-      </c>
-      <c r="F32" s="6">
-        <v>5</v>
-      </c>
-      <c r="G32" s="6"/>
+        <v>835</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>845</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>838</v>
+      </c>
       <c r="H32" s="6"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -5521,17 +5529,15 @@
         <v>32</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>813</v>
+        <v>826</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>834</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>846</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>838</v>
-      </c>
+        <v>799</v>
+      </c>
+      <c r="F33" s="6">
+        <v>5</v>
+      </c>
+      <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -5540,18 +5546,22 @@
       <c r="M33" s="2"/>
       <c r="N33" s="4"/>
     </row>
-    <row r="34" spans="3:14" ht="15">
+    <row r="34" spans="3:14">
       <c r="C34" s="13">
         <v>33</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>848</v>
-      </c>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
+      <c r="D34" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>838</v>
+      </c>
       <c r="H34" s="6"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -5560,22 +5570,18 @@
       <c r="M34" s="2"/>
       <c r="N34" s="4"/>
     </row>
-    <row r="35" spans="3:14">
+    <row r="35" spans="3:14" ht="15">
       <c r="C35" s="13">
         <v>34</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>813</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>2</v>
-      </c>
+      <c r="D35" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>848</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -5589,13 +5595,13 @@
         <v>35</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>849</v>
+        <v>813</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>831</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>82</v>
+        <v>832</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>2</v>
@@ -5615,18 +5621,16 @@
       <c r="D37" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="E37" s="6" t="s">
-        <v>850</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>296</v>
+      <c r="E37" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>827</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H37" s="6"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -5645,12 +5649,14 @@
         <v>850</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H38" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>827</v>
+      </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -5666,17 +5672,15 @@
         <v>849</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>869</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H39" s="6"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
@@ -5692,15 +5696,17 @@
         <v>849</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>298</v>
+        <v>851</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>845</v>
+        <v>306</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H40" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>869</v>
+      </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -5716,7 +5722,7 @@
         <v>849</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>852</v>
+        <v>298</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>845</v>
@@ -5740,10 +5746,10 @@
         <v>849</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>2</v>
@@ -5763,11 +5769,11 @@
       <c r="D43" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>831</v>
+      <c r="E43" s="6" t="s">
+        <v>850</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>26</v>
+        <v>846</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>2</v>
@@ -5791,17 +5797,13 @@
         <v>831</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>868</v>
+        <v>26</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H44" s="6">
-        <v>1</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>869</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H44" s="6"/>
+      <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
@@ -5818,17 +5820,17 @@
       <c r="E45" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>102</v>
+      <c r="F45" s="6" t="s">
+        <v>868</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H45" s="6">
-        <v>2</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>870</v>
+        <v>1</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>869</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
@@ -5836,42 +5838,46 @@
       <c r="M45" s="2"/>
       <c r="N45" s="4"/>
     </row>
-    <row r="46" spans="3:14" ht="15">
+    <row r="46" spans="3:14">
       <c r="C46" s="13">
         <v>45</v>
       </c>
-      <c r="D46" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>853</v>
-      </c>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="2"/>
+      <c r="D46" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H46" s="6">
+        <v>2</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>870</v>
+      </c>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="4"/>
     </row>
-    <row r="47" spans="3:14">
+    <row r="47" spans="3:14" ht="15">
       <c r="C47" s="13">
         <v>46</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>813</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>2</v>
-      </c>
+      <c r="D47" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>853</v>
+      </c>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
@@ -5891,7 +5897,7 @@
         <v>831</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>2</v>
@@ -5911,21 +5917,17 @@
       <c r="D49" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="E49" s="6" t="s">
-        <v>834</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>667</v>
+      <c r="E49" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>833</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>874</v>
-      </c>
-      <c r="H49" s="6">
-        <v>1</v>
-      </c>
-      <c r="I49" s="2">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H49" s="6"/>
+      <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
@@ -5943,13 +5945,17 @@
         <v>834</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>349</v>
+        <v>667</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H50" s="6"/>
-      <c r="I50" s="2"/>
+        <v>874</v>
+      </c>
+      <c r="H50" s="6">
+        <v>1</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
@@ -5964,17 +5970,15 @@
         <v>813</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>222</v>
+        <v>349</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>836</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>871</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H51" s="6"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
@@ -5993,13 +5997,13 @@
         <v>835</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>836</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>854</v>
+        <v>871</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
@@ -6019,17 +6023,15 @@
         <v>835</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>671</v>
+        <v>221</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H53" s="6">
-        <v>1</v>
-      </c>
-      <c r="I53" s="2">
-        <v>0</v>
-      </c>
+        <v>836</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>854</v>
+      </c>
+      <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
@@ -6047,13 +6049,17 @@
         <v>835</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>838</v>
-      </c>
-      <c r="H54" s="6"/>
-      <c r="I54" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="H54" s="6">
+        <v>1</v>
+      </c>
+      <c r="I54" s="2">
+        <v>0</v>
+      </c>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
@@ -6071,7 +6077,7 @@
         <v>835</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>838</v>
@@ -6095,7 +6101,7 @@
         <v>835</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>349</v>
+        <v>677</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>838</v>
@@ -6116,17 +6122,15 @@
         <v>813</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>222</v>
+        <v>349</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>836</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>860</v>
-      </c>
+        <v>838</v>
+      </c>
+      <c r="H57" s="6"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
@@ -6145,13 +6149,13 @@
         <v>840</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>836</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
@@ -6171,12 +6175,14 @@
         <v>840</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>17</v>
+        <v>221</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>838</v>
-      </c>
-      <c r="H59" s="6"/>
+        <v>836</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>855</v>
+      </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
@@ -6192,20 +6198,16 @@
         <v>813</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>671</v>
+        <v>17</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H60" s="6">
-        <v>1</v>
-      </c>
-      <c r="I60" s="2">
-        <v>0</v>
-      </c>
+        <v>838</v>
+      </c>
+      <c r="H60" s="6"/>
+      <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
@@ -6223,13 +6225,17 @@
         <v>835</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>856</v>
+        <v>671</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>838</v>
-      </c>
-      <c r="H61" s="6"/>
-      <c r="I61" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="H61" s="6">
+        <v>1</v>
+      </c>
+      <c r="I61" s="2">
+        <v>0</v>
+      </c>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
@@ -6247,17 +6253,13 @@
         <v>835</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>671</v>
+        <v>856</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H62" s="6">
-        <v>1</v>
-      </c>
-      <c r="I62" s="2">
-        <v>0</v>
-      </c>
+        <v>838</v>
+      </c>
+      <c r="H62" s="6"/>
+      <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
@@ -6275,13 +6277,17 @@
         <v>835</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>856</v>
+        <v>671</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>838</v>
-      </c>
-      <c r="H63" s="6"/>
-      <c r="I63" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="H63" s="6">
+        <v>1</v>
+      </c>
+      <c r="I63" s="2">
+        <v>0</v>
+      </c>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
@@ -6299,7 +6305,7 @@
         <v>835</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>845</v>
+        <v>856</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>838</v>
@@ -6320,10 +6326,10 @@
         <v>813</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>838</v>
@@ -6336,18 +6342,22 @@
       <c r="M65" s="2"/>
       <c r="N65" s="4"/>
     </row>
-    <row r="66" spans="3:14" ht="15">
+    <row r="66" spans="3:14">
       <c r="C66" s="13">
         <v>65</v>
       </c>
-      <c r="D66" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>848</v>
-      </c>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
+      <c r="D66" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>838</v>
+      </c>
       <c r="H66" s="6"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
@@ -6356,22 +6366,18 @@
       <c r="M66" s="2"/>
       <c r="N66" s="4"/>
     </row>
-    <row r="67" spans="3:14">
+    <row r="67" spans="3:14" ht="15">
       <c r="C67" s="13">
         <v>66</v>
       </c>
-      <c r="D67" s="5" t="s">
-        <v>813</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>2</v>
-      </c>
+      <c r="D67" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>848</v>
+      </c>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
@@ -6385,13 +6391,13 @@
         <v>67</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>849</v>
+        <v>813</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>831</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>82</v>
+        <v>832</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>2</v>
@@ -6411,18 +6417,16 @@
       <c r="D69" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="E69" s="6" t="s">
-        <v>850</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>296</v>
+      <c r="E69" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H69" s="6" t="s">
-        <v>827</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H69" s="6"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
@@ -6441,12 +6445,14 @@
         <v>850</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H70" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>827</v>
+      </c>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
@@ -6462,17 +6468,15 @@
         <v>849</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>298</v>
+        <v>850</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>871</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H71" s="6"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
@@ -6491,12 +6495,14 @@
         <v>298</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>845</v>
+        <v>306</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H72" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>871</v>
+      </c>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
@@ -6512,7 +6518,7 @@
         <v>849</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>852</v>
+        <v>298</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>845</v>
@@ -6536,10 +6542,10 @@
         <v>849</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>2</v>
@@ -6559,11 +6565,11 @@
       <c r="D75" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>831</v>
+      <c r="E75" s="6" t="s">
+        <v>850</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>26</v>
+        <v>846</v>
       </c>
       <c r="G75" s="6" t="s">
         <v>2</v>
@@ -6586,11 +6592,11 @@
       <c r="E76" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="F76" s="2" t="s">
-        <v>102</v>
+      <c r="F76" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>103</v>
+        <v>2</v>
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="2"/>
@@ -6614,57 +6620,57 @@
         <v>102</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H77" s="6">
-        <v>3</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>872</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="H77" s="6"/>
+      <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
       <c r="N77" s="4"/>
     </row>
-    <row r="78" spans="3:14" ht="15">
+    <row r="78" spans="3:14">
       <c r="C78" s="13">
         <v>77</v>
       </c>
-      <c r="D78" s="8" t="s">
-        <v>862</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>863</v>
-      </c>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="2"/>
+      <c r="D78" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H78" s="6">
+        <v>3</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>872</v>
+      </c>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
       <c r="N78" s="4"/>
     </row>
-    <row r="79" spans="3:14">
+    <row r="79" spans="3:14" ht="15">
       <c r="C79" s="13">
         <v>78</v>
       </c>
-      <c r="D79" s="7" t="s">
-        <v>857</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2" t="s">
-        <v>858</v>
-      </c>
+      <c r="D79" s="8" t="s">
+        <v>862</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>863</v>
+      </c>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
@@ -6676,19 +6682,19 @@
       <c r="C80" s="13">
         <v>79</v>
       </c>
-      <c r="D80" s="5" t="s">
-        <v>813</v>
+      <c r="D80" s="7" t="s">
+        <v>857</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>831</v>
+        <v>620</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H80" s="6"/>
+        <v>627</v>
+      </c>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2" t="s">
+        <v>858</v>
+      </c>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
@@ -6701,13 +6707,13 @@
         <v>80</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>849</v>
+        <v>813</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>831</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>82</v>
+        <v>832</v>
       </c>
       <c r="G81" s="6" t="s">
         <v>2</v>
@@ -6727,11 +6733,11 @@
       <c r="D82" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="E82" s="6" t="s">
-        <v>850</v>
-      </c>
-      <c r="F82" s="6" t="s">
-        <v>292</v>
+      <c r="E82" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="G82" s="6" t="s">
         <v>2</v>
@@ -6755,7 +6761,7 @@
         <v>850</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G83" s="6" t="s">
         <v>2</v>
@@ -6776,17 +6782,15 @@
         <v>849</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>298</v>
+        <v>850</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H84" s="6" t="s">
-        <v>864</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H84" s="6"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
@@ -6805,12 +6809,14 @@
         <v>298</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>845</v>
+        <v>306</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H85" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>864</v>
+      </c>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
@@ -6826,7 +6832,7 @@
         <v>849</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>852</v>
+        <v>298</v>
       </c>
       <c r="F86" s="6" t="s">
         <v>845</v>
@@ -6850,10 +6856,10 @@
         <v>849</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G87" s="6" t="s">
         <v>2</v>
@@ -6871,13 +6877,13 @@
         <v>87</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>813</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>832</v>
+        <v>849</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>850</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>846</v>
       </c>
       <c r="G88" s="6" t="s">
         <v>2</v>
@@ -6901,7 +6907,7 @@
         <v>831</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>2</v>
@@ -6921,18 +6927,16 @@
       <c r="D90" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="E90" s="6" t="s">
-        <v>834</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>667</v>
+      <c r="E90" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>833</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H90" s="6" t="s">
-        <v>837</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H90" s="6"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
@@ -6951,12 +6955,14 @@
         <v>834</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>213</v>
+        <v>667</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H91" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>837</v>
+      </c>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
@@ -6975,14 +6981,12 @@
         <v>834</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>667</v>
+        <v>213</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H92" s="6" t="s">
-        <v>871</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H92" s="6"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
@@ -7001,12 +7005,14 @@
         <v>834</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>213</v>
+        <v>667</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H93" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>871</v>
+      </c>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
@@ -7025,7 +7031,7 @@
         <v>834</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>100</v>
+        <v>213</v>
       </c>
       <c r="G94" s="6" t="s">
         <v>2</v>
@@ -7038,9 +7044,47 @@
       <c r="M94" s="2"/>
       <c r="N94" s="4"/>
     </row>
+    <row r="95" spans="3:14">
+      <c r="C95" s="13">
+        <v>94</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H95" s="6"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="4"/>
+    </row>
+    <row r="96" spans="3:14">
+      <c r="C96" s="13">
+        <v>95</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>826</v>
+      </c>
+      <c r="E96" s="13" t="s">
+        <v>897</v>
+      </c>
+      <c r="F96" s="13" t="s">
+        <v>898</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N87">
+  <conditionalFormatting sqref="N2:N88">
     <cfRule type="cellIs" dxfId="7" priority="13" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -7048,7 +7092,7 @@
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N88:N91">
+  <conditionalFormatting sqref="N89:N92">
     <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -7056,7 +7100,7 @@
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N92:N93">
+  <conditionalFormatting sqref="N93:N94">
     <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -7064,7 +7108,7 @@
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N94">
+  <conditionalFormatting sqref="N95">
     <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -7073,21 +7117,21 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D4 D96">
+      <formula1>"C,F,T,;"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G95">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F4:F95">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E96">
       <formula1>Forms</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3">
-      <formula1>"C,F,T,;"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I53" r:id="rId1" display="http://10.146.80.51/"/>
+    <hyperlink ref="I54" r:id="rId1" display="http://10.146.80.51/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30064,7 +30108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
